--- a/LakeHodges/Rating Curve and Pacings Development/Hodges Creeks pacing worksheet - Storm 1.xlsx
+++ b/LakeHodges/Rating Curve and Pacings Development/Hodges Creeks pacing worksheet - Storm 1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13428"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8748"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>Creek Site</t>
   </si>
@@ -82,6 +82,30 @@
   </si>
   <si>
     <t>Final Pacing</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>changed</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>~74 ali in bottle 1, switched in bottle 2 (ali 75-121) (same pacing) but forgot to reset on sutron. Bottle 3 with new pacing (ali 122-</t>
+  </si>
+  <si>
+    <t>small storm</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; 900</t>
   </si>
 </sst>
 </file>
@@ -203,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -215,6 +239,7 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -224,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,7 +640,7 @@
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -637,9 +662,12 @@
       <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -659,12 +687,30 @@
         <f>D2*60*5*0.6</f>
         <v>5261.4</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="11">
         <v>5000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="11">
+        <v>2500</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="11">
+        <v>1250</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
@@ -679,12 +725,12 @@
         <v>20522.999999999996</v>
       </c>
       <c r="F3" s="9">
-        <f t="shared" ref="F3:F28" si="1">D3*60*5*0.6</f>
+        <f t="shared" ref="F3:F31" si="1">D3*60*5*0.6</f>
         <v>12313.799999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -703,8 +749,8 @@
         <v>19364.399999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -724,12 +770,12 @@
         <f t="shared" si="1"/>
         <v>13500</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="11">
         <v>13000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -748,8 +794,8 @@
         <v>30780</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
@@ -768,8 +814,8 @@
         <v>48283.199999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -789,12 +835,18 @@
         <f t="shared" si="1"/>
         <v>22266</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="11">
         <v>22000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="11">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -812,14 +864,17 @@
         <f t="shared" si="1"/>
         <v>43579.799999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="5">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D10" s="5">
         <v>360.52</v>
@@ -833,51 +888,60 @@
         <v>64893.599999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1650</v>
+      </c>
+      <c r="F11" s="15">
+        <f>D11*60*5*0.6</f>
+        <v>990</v>
+      </c>
+      <c r="G11" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="3">
         <v>28</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="3">
         <v>86</v>
       </c>
-      <c r="E11" s="2">
-        <f>D11*60*5</f>
-        <v>25800</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="1"/>
-        <v>15480</v>
-      </c>
-      <c r="G11" s="14">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
       <c r="E12" s="3">
         <f>D12*60*5</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
+        <v>25800</v>
+      </c>
+      <c r="F12" s="15">
+        <f>D12*60*5*0.6</f>
+        <v>15480</v>
+      </c>
+      <c r="G12" s="11">
+        <v>15000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
       <c r="B13" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -890,342 +954,418 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14"/>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
+        <f>D14*60*5</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C15" s="6">
         <v>21</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="6">
         <v>183.96</v>
       </c>
-      <c r="E14" s="2">
-        <f t="shared" ref="E14:E28" si="2">D14*60*5</f>
+      <c r="E15" s="2">
+        <f t="shared" ref="E15:E31" si="2">D15*60*5</f>
         <v>55188</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F15" s="8">
         <f t="shared" si="1"/>
         <v>33112.799999999996</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G15" s="11">
         <v>33000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C16" s="5">
         <v>28</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D16" s="5">
         <v>398.57</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E16" s="3">
         <f t="shared" si="2"/>
         <v>119571</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <f t="shared" si="1"/>
         <v>71742.599999999991</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
+      <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C17" s="7">
         <v>31</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D17" s="7">
         <v>613.17999999999995</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E17" s="4">
         <f t="shared" si="2"/>
         <v>183953.99999999997</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F17" s="10">
         <f t="shared" si="1"/>
         <v>110372.39999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C18" s="6">
         <v>27</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="6">
         <v>244.83</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="6">
         <f t="shared" si="2"/>
         <v>73449</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F18" s="8">
         <f t="shared" si="1"/>
         <v>44069.4</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G18" s="11">
         <v>44000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C19" s="5">
         <v>30</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D19" s="5">
         <v>308.88</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E19" s="5">
         <f t="shared" si="2"/>
         <v>92664</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F19" s="9">
         <f t="shared" si="1"/>
         <v>55598.400000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
-      <c r="B19" s="4" t="s">
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14"/>
+      <c r="B20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C20" s="7">
         <v>34</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D20" s="7">
         <v>372.94</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E20" s="7">
         <f t="shared" si="2"/>
         <v>111882</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F20" s="10">
         <f t="shared" si="1"/>
         <v>67129.2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C21" s="6">
         <v>22</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D21" s="6">
         <v>68.239999999999995</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E21" s="6">
         <f t="shared" si="2"/>
         <v>20472</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F21" s="8">
         <f t="shared" si="1"/>
         <v>12283.199999999999</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G21" s="11">
         <v>12000</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="3" t="s">
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="11">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C22" s="5">
         <v>32</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D22" s="5">
         <v>146.41999999999999</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E22" s="5">
         <f t="shared" si="2"/>
         <v>43925.999999999993</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F22" s="9">
         <f t="shared" si="1"/>
         <v>26355.599999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
-      <c r="B22" s="4" t="s">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="14"/>
+      <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C23" s="7">
         <v>40</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D23" s="7">
         <v>224.59</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23" s="7">
         <f t="shared" si="2"/>
         <v>67377</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F23" s="10">
         <f t="shared" si="1"/>
         <v>40426.199999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="G24" s="11">
+        <v>65000</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C25" s="5">
         <v>32</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D25" s="5">
         <v>362.82</v>
       </c>
-      <c r="E23" s="6">
-        <f t="shared" si="2"/>
+      <c r="E25" s="5">
+        <f t="shared" ref="E25" si="3">D25*60*5</f>
         <v>108846</v>
       </c>
-      <c r="F23" s="8">
-        <f t="shared" si="1"/>
+      <c r="F25" s="15">
+        <f t="shared" ref="F25" si="4">D25*60*5*0.6</f>
         <v>65307.6</v>
       </c>
-      <c r="G23" s="14">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="3" t="s">
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C26" s="5">
         <v>52</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D26" s="5">
         <v>946.06</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E26" s="5">
         <f t="shared" si="2"/>
         <v>283818</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F26" s="9">
         <f t="shared" si="1"/>
         <v>170290.8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="13"/>
-      <c r="B25" s="4" t="s">
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="14"/>
+      <c r="B27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C27" s="7">
         <v>61</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D27" s="7">
         <v>1523.3</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E27" s="7">
         <f t="shared" si="2"/>
         <v>456990</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F27" s="10">
         <f t="shared" si="1"/>
         <v>274194</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="6">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="2"/>
+        <v>37.5</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="G28" s="11">
+        <v>13000</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C29" s="5">
         <v>35</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D29" s="5">
         <v>75.709999999999994</v>
       </c>
-      <c r="E26" s="6">
-        <f t="shared" si="2"/>
+      <c r="E29" s="5">
+        <f t="shared" ref="E29" si="5">D29*60*5</f>
         <v>22712.999999999996</v>
       </c>
-      <c r="F26" s="8">
-        <f t="shared" si="1"/>
+      <c r="F29" s="15">
+        <f t="shared" ref="F29" si="6">D29*60*5*0.6</f>
         <v>13627.799999999997</v>
       </c>
-      <c r="G26" s="14">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="3" t="s">
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C30" s="5">
         <v>51</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D30" s="3">
         <v>197.38</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E30" s="5">
         <f t="shared" si="2"/>
         <v>59214</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F30" s="9">
         <f t="shared" si="1"/>
         <v>35528.400000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
-      <c r="B28" s="4" t="s">
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="14"/>
+      <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C31" s="7">
         <v>59</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D31" s="4">
         <v>319.05</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E31" s="7">
         <f t="shared" si="2"/>
         <v>95715</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F31" s="10">
         <f t="shared" si="1"/>
         <v>57429</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A11:A14"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/LakeHodges/Rating Curve and Pacings Development/Hodges Creeks pacing worksheet - Storm 1.xlsx
+++ b/LakeHodges/Rating Curve and Pacings Development/Hodges Creeks pacing worksheet - Storm 1.xlsx
@@ -240,6 +240,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -249,7 +250,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -667,7 +667,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -710,7 +710,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
@@ -730,7 +730,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -750,7 +750,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -775,7 +775,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -795,7 +795,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
@@ -815,7 +815,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -846,7 +846,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -869,7 +869,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -889,7 +889,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -904,7 +904,7 @@
       <c r="E11" s="2">
         <v>1650</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="12">
         <f>D11*60*5*0.6</f>
         <v>990</v>
       </c>
@@ -913,7 +913,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
@@ -927,7 +927,7 @@
         <f>D12*60*5</f>
         <v>25800</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="12">
         <f>D12*60*5*0.6</f>
         <v>15480</v>
       </c>
@@ -939,7 +939,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
@@ -955,7 +955,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
@@ -971,7 +971,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -996,7 +996,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1016,7 +1016,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
@@ -1036,7 +1036,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1061,7 +1061,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
@@ -1081,7 +1081,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="4" t="s">
         <v>2</v>
       </c>
@@ -1101,7 +1101,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1132,7 +1132,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1152,7 +1152,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
@@ -1172,7 +1172,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1203,7 +1203,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="3" t="s">
         <v>1</v>
       </c>
@@ -1217,14 +1217,14 @@
         <f t="shared" ref="E25" si="3">D25*60*5</f>
         <v>108846</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="12">
         <f t="shared" ref="F25" si="4">D25*60*5*0.6</f>
         <v>65307.6</v>
       </c>
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="3" t="s">
         <v>10</v>
       </c>
@@ -1244,7 +1244,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="14"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="4" t="s">
         <v>2</v>
       </c>
@@ -1264,7 +1264,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1295,7 +1295,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="3" t="s">
         <v>1</v>
       </c>
@@ -1309,14 +1309,14 @@
         <f t="shared" ref="E29" si="5">D29*60*5</f>
         <v>22712.999999999996</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="12">
         <f t="shared" ref="F29" si="6">D29*60*5*0.6</f>
         <v>13627.799999999997</v>
       </c>
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="3" t="s">
         <v>10</v>
       </c>
@@ -1336,7 +1336,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="14"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
